--- a/output/fit_clients/fit_round_84.xlsx
+++ b/output/fit_clients/fit_round_84.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>9905809707.0357</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004406527616745273</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>17</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.845447167750253</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9649024398386445</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.845447167750253</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5927342652.657437</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004659964119360831</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>19</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.370613523837356</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9174950268074413</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.370613523837356</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5518732887.308025</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002722479889558105</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.718503424665472</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9615290195767221</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2.718503424665472</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4860579849.896581</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004070976285412522</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>19</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.517029221348678</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8592877283345293</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.517029221348678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6663431098.449369</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.001846300863979948</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>24</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.237905726593461</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.880875344414677</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.237905726593461</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8413909240.991702</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001101173254419811</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.425897288218358</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9307877151697663</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.425897288218358</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>5874228948.636907</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002650934417803732</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.142257871394585</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.975218246748326</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.142257871394585</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>4633643553.287047</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.0053734350720982</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.726699263701612</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9115428930177825</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.726699263701612</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3556100707.338389</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.003696448647100748</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>17</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.493732119172128</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9594183035821229</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.493732119172128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3909608070.695769</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001431728835259002</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>19</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.341401598140252</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.8034344485235958</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.341401598140252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>8375378003.173231</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001935325864052758</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.766184224389836</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9964125129611264</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-2.766184224389836</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5798487843.380997</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004264646928810388</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>19</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.3646279368348</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.043428422900957</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.3646279368348</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>8554544909.526565</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002219150570733111</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>14</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6683959508951984</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.752201102215502</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9775999581823105</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.752201102215502</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7469073357.51452</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005528058778326781</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.119253619835316</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.007242161728448</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.119253619835316</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>7172088576.382381</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.005539515059669362</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>13</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.927655071145172</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9355394389738707</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-2.927655071145172</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5534946399.026587</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003380467807817395</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.887124671286915</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9640289167929503</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.887124671286915</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6721245341.099735</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0008179313690211047</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>15</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.690677554447017</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.626104381442215</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.021098098552528</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.626104381442215</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3492103477.195692</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002152944758020046</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>17</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.528937204570723</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9258315496349079</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.528937204570723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4398772928.085522</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001141781880731591</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>13</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.4002959450613197</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.795842022858662</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.650709690321157</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-2.795842022858662</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5932166608.397638</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005522495837094804</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
         <v>16</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.76066044057025</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8881802845155033</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.76066044057025</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>6215973790.335439</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004331152920269377</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>20</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.444036406554095</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8065279478249501</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.444036406554095</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7598409671.651446</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001711451172394915</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>22</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.175163883580072</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8776114357529315</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.175163883580072</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>5544090261.030651</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004901597164774992</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>15</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.780878883268995</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.002747116961855</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-2.780878883268995</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6619785755.954777</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.004274971741334192</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>11</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.152052566123328</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9636351123365868</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.152052566123328</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>3632541028.828719</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001367965065893488</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>20</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.171880790662932</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8310172271522257</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.171880790662932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>7568178424.037199</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003724614854464173</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>17</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.08266434933515397</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.546881156304253</v>
-      </c>
-      <c r="M27" t="n">
-        <v>-0.2223848000796393</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.546881156304253</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>8946216353.316208</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004499757641367725</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>14</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.788138448771922</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9291551431116243</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.788138448771922</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7512546441.156269</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001468908909168067</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>14</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.866561048050859</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9970904777060597</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-2.866561048050859</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>7246068707.759177</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.0042575017195655</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>20</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.210385560194419</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8839386129047881</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.210385560194419</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>5084662414.655495</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002230739291813521</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>19</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.469566609526443</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9722236616985103</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.469566609526443</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4881597064.142907</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.00123513647476836</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>20</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.07390271916533754</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590734</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.627325840372584</v>
-      </c>
-      <c r="M32" t="n">
-        <v>-0.3200463157979567</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.627325840372584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5582534704.973919</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003022609099728425</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>12</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.061976801719719</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8696428364673577</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.061976801719719</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>7537702136.904897</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004791699592292668</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>16</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.741930616677009</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7656644593848959</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.741930616677009</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>4773546203.570311</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001675374369468842</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>16</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.588752239455902</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.272930699980341</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.588752239455902</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5442373028.156129</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003487968379311231</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>16</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.591436712218306</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.026009330735498</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.591436712218306</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4624436914.750991</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004067609863762678</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
         <v>20</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.513589734318839</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.014047938159352</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.513589734318839</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3276974800.267611</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003580128237272764</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>17</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6481417875544693</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.441008216998182</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9678353161728084</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.441008216998182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4637236119.678023</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002163721058393618</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
         <v>13</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.053149694496637</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8845143045104719</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.053149694496637</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5405126158.048252</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.00407199106306529</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>18</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.647223518378933</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9869188364421332</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.647223518378933</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6646812929.076261</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001237029439721376</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.112701672068447</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9570416632196017</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.112701672068447</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>4548085271.274602</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.005180844775008939</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>16</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.492614707412642</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9946736770455331</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.492614707412642</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6281895211.288802</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004437552987677732</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>16</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.714477927535272</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9333699521817547</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.714477927535272</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>7725639075.859061</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002264060143756969</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>22</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.360018014323782</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9312849263353785</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.360018014323782</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4807319212.690829</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.00153904154542647</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>15</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.1773307527818326</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.95672918981899</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.397889539326601</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-2.95672918981899</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>8500438024.588383</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.003667608497467808</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>19</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.421396520921185</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8229013455748668</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.421396520921185</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>6965684304.309639</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002948519664648631</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>16</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.511988067954663</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.9116343381173849</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.511988067954663</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6297408162.76124</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.00361218147115987</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>12</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.8722558003869255</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.015919826454177</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.194713053148559</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.015919826454177</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4592843557.547791</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004663579907305548</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>20</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.472358103039828</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8791500905178276</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.472358103039828</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>6423676936.22125</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002820463052871448</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>9</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.471558587975085</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.035716687680861</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-3.471558587975085</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5023714685.25745</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004598699230996059</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>20</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.408010098579143</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9573029337720764</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.408010098579143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>5353489785.604002</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001888048532219285</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>16</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.527458853522815</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8640898501714727</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.527458853522815</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>4393357844.731143</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002744528591670576</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>16</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.609881372101063</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9344999278049223</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.609881372101063</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4800925823.148301</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.005262168361123564</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>19</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.7947530177426698</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.316293697914641</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.031075835943281</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.316293697914641</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>7893705899.879638</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.002906935046102071</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>19</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.8366821901059527</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.387360060820983</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.124759936076676</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.387360060820983</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5329626425.566083</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.00179637546105215</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>17</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.816775146809137</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.558538078763164</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.109128738106604</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.558538078763164</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>6647267633.281572</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.004710669220914998</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>16</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.7084621642652907</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.552322367331848</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.939803702347919</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.552322367331848</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6583226155.087903</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002167669704941344</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>17</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.374720145608961</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8522346610752579</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.374720145608961</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7066121932.435301</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003883364599962186</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>17</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5979549790154509</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.485155801361532</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.9048323115595999</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.485155801361532</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5107904797.977391</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.00386079250912618</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>20</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.7047022538821353</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677436</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.218314256130284</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.9232969191325537</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.218314256130284</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6077837189.316661</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005785384090237437</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>24</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.82416993367949</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9343613617080091</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.82416993367949</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>3993915253.90942</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003476782300458442</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>17</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.104103652017804</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8826494793115286</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.104103652017804</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8172272589.662</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004898334739906005</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>24</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.11451988036131</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.8927753618430657</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.11451988036131</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4427292493.932099</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003684580712434472</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>15</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930866</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.63337638348025</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9030744773983157</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.63337638348025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5771047090.557711</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.003732464119847526</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>20</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.790829801727027</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.001481628241688</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-2.790829801727027</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4721402532.058378</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002738861235267957</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>16</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.631128802950476</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9197019617550902</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.631128802950476</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>4873713682.493374</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004542254109509912</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>14</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5065279611455898</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>2.849413434782749</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8093583385543648</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-2.849413434782749</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>7950619410.20365</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.00199979885351161</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>20</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.0500639106867665</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.206996371100277</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.731027853014404</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.206996371100277</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>6198545201.049868</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0009532633874844206</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>12</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.040769527180841</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9942081675880281</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.040769527180841</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>5467980141.700524</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002735001671243346</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>12</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.784587832691904</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9134399914550784</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.784587832691904</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4705998289.430427</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003716130246820167</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>15</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6309352025674889</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.627023563610435</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8374501264091837</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.627023563610435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>5952118353.128725</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001670405137518084</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>17</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.519737230169334</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.061756530259429</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.519737230169334</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5395487614.295672</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001383648414966098</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>13</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.840032296230877</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9742210744911747</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-2.840032296230877</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>4068751015.528298</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.00358601645177241</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>17</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.458982869377275</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8802549678733113</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.458982869377275</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>5165205983.764288</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003849838483976914</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>17</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.605938191283475</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8826494793115286</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.605938191283475</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>4634336927.682812</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002874972356981641</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>18</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.546140110027777</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.939814316854147</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.546140110027777</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>6603030843.59713</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004072044128105948</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>11</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.131324708229677</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.005439147617436</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.131324708229677</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5891909857.058342</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003635535667301813</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>16</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.63149278602713</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9390062325639492</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.63149278602713</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6596442532.798822</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001604511467193469</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>13</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.781807725028544</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9676997558090703</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-2.781807725028544</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6363161724.958004</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003446053348500279</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>20</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330154</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.637462953746526</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.973698422758883</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.637462953746526</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7399220898.73706</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004143539814634104</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>9</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.324847297402637</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.000473410173931</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.324847297402637</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>8382962115.406014</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005626416732925211</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>20</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.419349482472421</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8946190799825073</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.419349482472421</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>7022346674.418342</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003346632422102248</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>22</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.169976713080529</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8407629922964607</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.169976713080529</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6015343992.935967</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004203697524226451</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>19</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.369527755896789</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9656888545368298</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.369527755896789</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4291763116.315075</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003090976317550893</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>22</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.180461471092109</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.9083384090672424</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.180461471092109</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>5591744489.052004</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002362631113922099</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>19</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307498</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.65990114252478</v>
-      </c>
-      <c r="M86" t="n">
-        <v>-0.4755948656056709</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.65990114252478</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4721305765.748963</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001193106246433041</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>24</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.137389417382419</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9741737328586073</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.137389417382419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>6013631006.771465</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004904671444049396</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>16</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.52822484522662</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8591907119160574</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.52822484522662</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>6411033333.339954</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003412864341092109</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>14</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.866860402864075</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9691814007241427</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-2.866860402864075</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6920499981.93084</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002589971736724097</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
         <v>15</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.603364564562499</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9608259627745188</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.603364564562499</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5782567647.987344</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.002948057164752075</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>13</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.725927258299578</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8226987196428215</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.725927258299578</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3626556208.93671</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003773094903493276</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.041500124004977</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.072832574419034</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.041500124004977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5916946645.193638</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001855218441836619</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>17</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.540108505766167</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9394103615986915</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.540108505766167</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>7200854159.905437</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001190464811591603</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>14</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.814084047290573</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.019074588436202</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.814084047290573</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>4869891592.911101</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.00271930352734788</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>14</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.695340782984844</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9336872440476626</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-2.695340782984844</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>9331372004.147209</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002581729418606315</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>23</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693104</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.245497349354519</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.922586341353188</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.245497349354519</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7016170069.858078</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.005276479426048227</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>16</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.8170346334613359</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244965</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.735956869804738</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.092296915391274</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.735956869804738</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>6748270815.172847</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004579783501839515</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>16</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.411523802180242</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8725971585965638</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.411523802180242</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3013004273.053362</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004724805242717968</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>20</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.388870132603391</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.9051735331711014</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.388870132603391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4109867581.765219</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002958003120514471</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>15</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5932750616503878</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.605726085889162</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8388558862233922</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.605726085889162</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7515150444.434698</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001629463955229009</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>19</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.8380088243854533</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480224</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.680962010242052</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1.105771090836333</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.680962010242052</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_84.xlsx
+++ b/output/fit_clients/fit_round_84.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -483,19 +493,25 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>9905809707.0357</v>
+        <v>1734656663.645906</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004406527616745273</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>21</v>
+        <v>0.08308452216931307</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04233219526861101</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>867328291.7370663</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5927342652.657437</v>
+        <v>2039484899.339588</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004659964119360831</v>
-      </c>
-      <c r="G3" t="b">
+        <v>0.1715573433760147</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03385235179888547</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
-        <v>20</v>
+      <c r="J3" t="n">
+        <v>1019742495.760638</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5518732887.308025</v>
+        <v>3611411997.897707</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002722479889558105</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18</v>
+        <v>0.1629110963318287</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03466727619980391</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>31</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1805705985.516511</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4860579849.896581</v>
+        <v>3182928053.672616</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004070976285412522</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1100134451606087</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03774303813277687</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>31</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1591464084.477893</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6663431098.449369</v>
+        <v>2712700841.893265</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001846300863979948</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>18</v>
+        <v>0.1081166429354157</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.03561025129066192</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1356350373.337878</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8413909240.991702</v>
+        <v>2388448601.362075</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001101173254419811</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
+        <v>0.0661634626019177</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03363102630985252</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1194224324.387536</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>5874228948.636907</v>
+        <v>3809648191.320843</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002650934417803732</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>22</v>
+        <v>0.1440579626148754</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02409865969548175</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>28</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1904824235.85766</v>
       </c>
     </row>
     <row r="9">
@@ -679,19 +731,25 @@
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>4633643553.287047</v>
+        <v>2100893567.964108</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0053734350720982</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>26</v>
+        <v>0.1945890151422849</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02383932670214072</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1050446796.485804</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3556100707.338389</v>
+        <v>4655156295.685695</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003696448647100748</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1658557542653203</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03388774305419454</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>36</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2327578220.372132</v>
       </c>
     </row>
     <row r="11">
@@ -735,19 +799,25 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3909608070.695769</v>
+        <v>3884270986.352894</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001431728835259002</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1660326147151001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0404254531473342</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>35</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1942135497.689843</v>
       </c>
     </row>
     <row r="12">
@@ -763,19 +833,25 @@
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>8375378003.173231</v>
+        <v>3270059190.584562</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001935325864052758</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>24</v>
+        <v>0.1493807196557536</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03673580096067416</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>30</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1635029637.959138</v>
       </c>
     </row>
     <row r="13">
@@ -791,19 +867,25 @@
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5798487843.380997</v>
+        <v>5319369737.321905</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004264646928810388</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>17</v>
+        <v>0.07989539264239201</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02709216971822712</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>28</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2659684856.481711</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>8554544909.526565</v>
+        <v>3870443187.524988</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002219150570733111</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>19</v>
+        <v>0.1272228991856129</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.02917378657272942</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>27</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1935221565.068763</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7469073357.51452</v>
+        <v>1216199992.440776</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005528058778326781</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>23</v>
+        <v>0.09558553715620592</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03382465458955873</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>608100017.298048</v>
       </c>
     </row>
     <row r="16">
@@ -875,19 +969,25 @@
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>7172088576.382381</v>
+        <v>2271479127.389132</v>
       </c>
       <c r="F16" t="n">
-        <v>0.005539515059669362</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>26</v>
+        <v>0.07740246376307508</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03516689187818803</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1135739614.840106</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5534946399.026587</v>
+        <v>4018897446.169832</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003380467807817395</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>18</v>
+        <v>0.1608938518893626</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04091061629517414</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>25</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2009448756.681173</v>
       </c>
     </row>
     <row r="18">
@@ -931,19 +1037,25 @@
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6721245341.099735</v>
+        <v>2699984503.345006</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008179313690211047</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>24</v>
+        <v>0.1565524836905747</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02653247474992692</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>28</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1349992303.604876</v>
       </c>
     </row>
     <row r="19">
@@ -959,19 +1071,25 @@
         <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3492103477.195692</v>
+        <v>1372027155.273078</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002152944758020046</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1487732968078277</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01686311328780482</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>686013697.3169663</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4398772928.085522</v>
+        <v>1886287766.763868</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001141781880731591</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
+        <v>0.150443990078565</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02745823359265004</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>11</v>
+      </c>
+      <c r="J20" t="n">
+        <v>943143921.7478055</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5932166608.397638</v>
+        <v>2464902214.299892</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005522495837094804</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>16</v>
+        <v>0.07273120315448589</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03191170169247009</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1232451098.577947</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>6215973790.335439</v>
+        <v>2452137823.341831</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004331152920269377</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
+        <v>0.1402187904371756</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04838269731788759</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>23</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1226069005.93068</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7598409671.651446</v>
+        <v>1165119446.959576</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001711451172394915</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>16</v>
+        <v>0.1848206568452825</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04759808929432344</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>582559765.7668846</v>
       </c>
     </row>
     <row r="24">
@@ -1099,19 +1241,25 @@
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>5544090261.030651</v>
+        <v>3849913572.791245</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004901597164774992</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>23</v>
+        <v>0.1274588401252189</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02262179853229722</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1924956764.36124</v>
       </c>
     </row>
     <row r="25">
@@ -1127,19 +1275,25 @@
         <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6619785755.954777</v>
+        <v>1427975293.236103</v>
       </c>
       <c r="F25" t="n">
-        <v>0.004274971741334192</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>18</v>
+        <v>0.09017453879775195</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02564660768389335</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>713987612.0559626</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>3632541028.828719</v>
+        <v>1438669802.447349</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001367965065893488</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1220228745646826</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03439676703666898</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>719334980.6193807</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>7568178424.037199</v>
+        <v>4348493470.959315</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003724614854464173</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>23</v>
+        <v>0.1078459885283065</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02614262664388204</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>19</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2174246728.216996</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>499</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3469802056.536358</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.09683103621921775</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04249308322679117</v>
+      </c>
+      <c r="H28" t="b">
         <v>1</v>
       </c>
-      <c r="D28" t="n">
-        <v>507</v>
-      </c>
-      <c r="E28" t="n">
-        <v>8946216353.316208</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.004499757641367725</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>21</v>
+      <c r="I28" t="n">
+        <v>26</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1734901080.215251</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7512546441.156269</v>
+        <v>5367803112.223921</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001468908909168067</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>21</v>
+        <v>0.1216854373026376</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03377339535380146</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>39</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2683901478.050469</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>7246068707.759177</v>
+        <v>2379088931.073036</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0042575017195655</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>25</v>
+        <v>0.1011531478676268</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02750099631624307</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1189544546.075116</v>
       </c>
     </row>
     <row r="31">
@@ -1295,19 +1479,25 @@
         <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>5084662414.655495</v>
+        <v>1498231694.310701</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002230739291813521</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>17</v>
+        <v>0.08042323201777928</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0513698365205822</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>749115728.3504288</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4881597064.142907</v>
+        <v>1510545581.280533</v>
       </c>
       <c r="F32" t="n">
-        <v>0.00123513647476836</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.07855379273312867</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03325176097306834</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>755272861.1054761</v>
       </c>
     </row>
     <row r="33">
@@ -1351,19 +1547,25 @@
         <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5582534704.973919</v>
+        <v>1977994775.8998</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003022609099728425</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>18</v>
+        <v>0.167637777418618</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04530748700390209</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>24</v>
+      </c>
+      <c r="J33" t="n">
+        <v>988997470.5324273</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>7537702136.904897</v>
+        <v>1558545200.474486</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004791699592292668</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>26</v>
+        <v>0.1025675157299391</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02816484302399289</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>779272546.3878289</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>4773546203.570311</v>
+        <v>1216943595.585881</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001675374369468842</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>22</v>
+        <v>0.08572764198700586</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04290193518177379</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>608471768.7164767</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5442373028.156129</v>
+        <v>2606476277.969925</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003487968379311231</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>24</v>
+        <v>0.1735106604209313</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01920871663541171</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>21</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1303238152.347422</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
+        <v>4</v>
+      </c>
+      <c r="D37" t="n">
+        <v>493</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2844270807.301185</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.08038582152306789</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02682094002944446</v>
+      </c>
+      <c r="H37" t="b">
         <v>1</v>
       </c>
-      <c r="D37" t="n">
-        <v>573</v>
-      </c>
-      <c r="E37" t="n">
-        <v>4624436914.750991</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.004067609863762678</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>20</v>
+      <c r="I37" t="n">
+        <v>21</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1422135546.982392</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3276974800.267611</v>
+        <v>1628130861.84792</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003580128237272764</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1078510721214627</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02900113262315691</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>814065461.9995413</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4637236119.678023</v>
+        <v>1419288961.181629</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002163721058393618</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>13</v>
+        <v>0.1664203723441188</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02499629972174146</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>709644563.2091931</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5405126158.048252</v>
+        <v>1547267051.464619</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00407199106306529</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>26</v>
+        <v>0.1477044973526362</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.03675274500940685</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>773633480.0239289</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6646812929.076261</v>
+        <v>1854353363.064331</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001237029439721376</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>24</v>
+        <v>0.1246441984390598</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04333463268665951</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>23</v>
+      </c>
+      <c r="J41" t="n">
+        <v>927176769.9057411</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4548085271.274602</v>
+        <v>4086031589.078519</v>
       </c>
       <c r="F42" t="n">
-        <v>0.005180844775008939</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>20</v>
+        <v>0.1192334913694057</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03989494717459929</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>27</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2043015829.666747</v>
       </c>
     </row>
     <row r="43">
@@ -1631,19 +1887,25 @@
         <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6281895211.288802</v>
+        <v>2287062750.18295</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004437552987677732</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>20</v>
+        <v>0.1403819909942977</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01731546088686048</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>30</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1143531445.091083</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>7725639075.859061</v>
+        <v>2298279300.953379</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002264060143756969</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>23</v>
+        <v>0.09696176894082476</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02578563473391061</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1149139816.253731</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4807319212.690829</v>
+        <v>1983375364.721653</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00153904154542647</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
+        <v>0.128723458982324</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03540258135294247</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>991687671.4755905</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>8500438024.588383</v>
+        <v>3554221100.527881</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003667608497467808</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>13</v>
+        <v>0.1398536392508346</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05162793077911522</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>30</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1777110494.235893</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>6965684304.309639</v>
+        <v>3482932864.80314</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002948519664648631</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>12</v>
+        <v>0.1954613472210553</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.03722274535169656</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>23</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1741466402.137698</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>6297408162.76124</v>
+        <v>3299946763.72413</v>
       </c>
       <c r="F48" t="n">
-        <v>0.00361218147115987</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>15</v>
+        <v>0.09530422707407725</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02916017818379511</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>29</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1649973456.813512</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4592843557.547791</v>
+        <v>1764350428.60896</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004663579907305548</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1420178789974629</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03261233420387203</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>882175205.1240498</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>6423676936.22125</v>
+        <v>4174277108.802944</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002820463052871448</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>24</v>
+        <v>0.1122575481967493</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03549572716235717</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>29</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2087138530.606376</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5023714685.25745</v>
+        <v>1506332704.159962</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004598699230996059</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1328683777907003</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.03489140219371233</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>753166353.9025444</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5353489785.604002</v>
+        <v>3625669537.637048</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001888048532219285</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>20</v>
+        <v>0.1045261446734772</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05647581255490797</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>35</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1812834847.246039</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>4393357844.731143</v>
+        <v>2536086133.043049</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002744528591670576</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>16</v>
+        <v>0.1888746746816372</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02460312784711334</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>24</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1268043130.932638</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4800925823.148301</v>
+        <v>4065361643.979378</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005262168361123564</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>21</v>
+        <v>0.1596695182662376</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0447611605440514</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>28</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2032680891.10691</v>
       </c>
     </row>
     <row r="55">
@@ -1967,19 +2295,25 @@
         <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>7893705899.879638</v>
+        <v>4684340021.287981</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002906935046102071</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>26</v>
+        <v>0.1843741016036844</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02236794241496837</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>22</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2342170015.66449</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5329626425.566083</v>
+        <v>1763902352.15017</v>
       </c>
       <c r="F56" t="n">
-        <v>0.00179637546105215</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>12</v>
+        <v>0.1252742054433871</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04265533015616649</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>881951179.1233011</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>6647267633.281572</v>
+        <v>3387555165.487968</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004710669220914998</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>21</v>
+        <v>0.1509272363391864</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02229406051950864</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>27</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1693777619.61865</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6583226155.087903</v>
+        <v>1739715755.244856</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002167669704941344</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>19</v>
+        <v>0.188640065204034</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02738491140725937</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>869857886.7943655</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7066121932.435301</v>
+        <v>4183698777.422421</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003883364599962186</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>11</v>
+        <v>0.08139634368136087</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03127648606740664</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>23</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2091849355.715219</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5107904797.977391</v>
+        <v>2710376010.953887</v>
       </c>
       <c r="F60" t="n">
-        <v>0.00386079250912618</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
+        <v>0.1304620060311777</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0207212518689367</v>
+      </c>
+      <c r="H60" t="b">
         <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>25</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1355188045.367524</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6077837189.316661</v>
+        <v>3063290066.997353</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005785384090237437</v>
-      </c>
-      <c r="G61" t="b">
+        <v>0.1668501661244257</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0249526963174204</v>
+      </c>
+      <c r="H61" t="b">
         <v>1</v>
       </c>
-      <c r="H61" t="n">
-        <v>19</v>
+      <c r="I61" t="n">
+        <v>30</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1531645007.919293</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>3993915253.90942</v>
+        <v>1462189745.104947</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003476782300458442</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>14</v>
+        <v>0.1332281566893628</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03317861737951331</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>731094849.8764452</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8172272589.662</v>
+        <v>5367856423.611148</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004898334739906005</v>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>20</v>
+        <v>0.07106824339140266</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04601734522286685</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>24</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2683928213.060275</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4427292493.932099</v>
+        <v>5464236633.301105</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003684580712434472</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1358596015088652</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03566857095991881</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>26</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2732118455.405716</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5771047090.557711</v>
+        <v>5054417088.142206</v>
       </c>
       <c r="F65" t="n">
-        <v>0.003732464119847526</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>21</v>
+        <v>0.1180200292062667</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.03130575736883179</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>30</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2527208499.65117</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
+        <v>4</v>
+      </c>
+      <c r="D66" t="n">
+        <v>475</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4303896257.600246</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.1057879792711165</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04627253688254847</v>
+      </c>
+      <c r="H66" t="b">
         <v>1</v>
       </c>
-      <c r="D66" t="n">
-        <v>472</v>
-      </c>
-      <c r="E66" t="n">
-        <v>4721402532.058378</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.002738861235267957</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>18</v>
+      <c r="I66" t="n">
+        <v>24</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2151948118.570541</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>4873713682.493374</v>
+        <v>2466062926.819323</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004542254109509912</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>13</v>
+        <v>0.1033168156422786</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04512052050933043</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>27</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1233031526.811738</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>7950619410.20365</v>
+        <v>3897985049.014348</v>
       </c>
       <c r="F68" t="n">
-        <v>0.00199979885351161</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>17</v>
+        <v>0.135770211651904</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04005985651591026</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>27</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1948992514.040364</v>
       </c>
     </row>
     <row r="69">
@@ -2359,19 +2771,25 @@
         <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>6198545201.049868</v>
+        <v>2334808872.307643</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0009532633874844206</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>20</v>
+        <v>0.1601651417109651</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04287115022223422</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1167404484.321485</v>
       </c>
     </row>
     <row r="70">
@@ -2387,19 +2805,25 @@
         <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>5467980141.700524</v>
+        <v>3654849061.205078</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002735001671243346</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>23</v>
+        <v>0.06761740365815888</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03219353658350354</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>24</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1827424550.113304</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4705998289.430427</v>
+        <v>5242387731.523884</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003716130246820167</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.18133314651009</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.03161217911462798</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>31</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2621193989.471852</v>
       </c>
     </row>
     <row r="72">
@@ -2443,19 +2873,25 @@
         <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>5952118353.128725</v>
+        <v>1642298729.222348</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001670405137518084</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>19</v>
+        <v>0.09805356951256441</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03402164847930924</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>821149368.5817771</v>
       </c>
     </row>
     <row r="73">
@@ -2471,19 +2907,25 @@
         <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5395487614.295672</v>
+        <v>3550179883.314197</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001383648414966098</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>20</v>
+        <v>0.09040469154967376</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03443222416098369</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>32</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1775089887.194062</v>
       </c>
     </row>
     <row r="74">
@@ -2499,19 +2941,25 @@
         <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4068751015.528298</v>
+        <v>3888960187.592823</v>
       </c>
       <c r="F74" t="n">
-        <v>0.00358601645177241</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>18</v>
+        <v>0.1564595380038337</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03200231243077502</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>29</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1944480082.296288</v>
       </c>
     </row>
     <row r="75">
@@ -2527,19 +2975,25 @@
         <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>5165205983.764288</v>
+        <v>1704483261.804975</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003849838483976914</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>16</v>
+        <v>0.1305444559853331</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0331033691269642</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>852241622.690794</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4634336927.682812</v>
+        <v>5202813844.783574</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002874972356981641</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>17</v>
+        <v>0.1018154005438749</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02938244175479443</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>18</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2601406957.445393</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>6603030843.59713</v>
+        <v>1517272495.567258</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004072044128105948</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>29</v>
+        <v>0.1125046185469605</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.03080280722139525</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>758636237.9564618</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D78" t="n">
+        <v>519</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3673352657.102726</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.1369529036053265</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05468882358147135</v>
+      </c>
+      <c r="H78" t="b">
         <v>1</v>
       </c>
-      <c r="D78" t="n">
-        <v>454</v>
-      </c>
-      <c r="E78" t="n">
-        <v>5891909857.058342</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.003635535667301813</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>19</v>
+      <c r="I78" t="n">
+        <v>29</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1836676317.558848</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6596442532.798822</v>
+        <v>1647376221.662551</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001604511467193469</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>18</v>
+        <v>0.175543075232406</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03673625005305803</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>823688170.731495</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>6363161724.958004</v>
+        <v>5114595765.129058</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003446053348500279</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>28</v>
+        <v>0.07193024888894488</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03573111640559299</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>17</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2557297937.375138</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7399220898.73706</v>
+        <v>4380503005.080954</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004143539814634104</v>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="n">
-        <v>16</v>
+        <v>0.08345142791044866</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02636437857288059</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>20</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2190251479.79318</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>8382962115.406014</v>
+        <v>4134493757.17089</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005626416732925211</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>16</v>
+        <v>0.1950079258813011</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02927835045326146</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>32</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2067246910.752283</v>
       </c>
     </row>
     <row r="83">
@@ -2751,19 +3247,25 @@
         <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>7022346674.418342</v>
+        <v>2400428651.559204</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003346632422102248</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>21</v>
+        <v>0.1523276888793498</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04185389642842457</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1200214360.870223</v>
       </c>
     </row>
     <row r="84">
@@ -2779,19 +3281,25 @@
         <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6015343992.935967</v>
+        <v>2194081245.133354</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004203697524226451</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>21</v>
+        <v>0.09094696674696214</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04337189387809869</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1097040599.055071</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4291763116.315075</v>
+        <v>2742064730.065033</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003090976317550893</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
+        <v>0.1326177453154583</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04227820398439132</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>32</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1371032396.63676</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>5591744489.052004</v>
+        <v>2594745579.494668</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002362631113922099</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>22</v>
+        <v>0.1475194214121185</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.01740569458767403</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>7</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1297372899.973021</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4721305765.748963</v>
+        <v>1364139961.527133</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001193106246433041</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1739351542819813</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.02888650512210486</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>682070078.3616928</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
+        <v>3</v>
+      </c>
+      <c r="D88" t="n">
+        <v>555</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2716030524.469919</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.178641887458301</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02940535708242661</v>
+      </c>
+      <c r="H88" t="b">
         <v>1</v>
       </c>
-      <c r="D88" t="n">
-        <v>477</v>
-      </c>
-      <c r="E88" t="n">
-        <v>6013631006.771465</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.004904671444049396</v>
-      </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="n">
-        <v>19</v>
+      <c r="I88" t="n">
+        <v>32</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1358015264.542602</v>
       </c>
     </row>
     <row r="89">
@@ -2919,19 +3451,25 @@
         <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>6411033333.339954</v>
+        <v>2234808486.165957</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003412864341092109</v>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>18</v>
+        <v>0.1434225562382122</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.04063906071307868</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>27</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1117404337.211492</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6920499981.93084</v>
+        <v>1545111656.060694</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002589971736724097</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>15</v>
+        <v>0.1068750909231191</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.03721994680593033</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>772555814.9329271</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5782567647.987344</v>
+        <v>1613832497.98133</v>
       </c>
       <c r="F91" t="n">
-        <v>0.002948057164752075</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>25</v>
+        <v>0.1922961713454293</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04581159975524385</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>806916272.641593</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3626556208.93671</v>
+        <v>2633559887.058729</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003773094903493276</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.09086357475616737</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0416764786937858</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>17</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1316779937.479202</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5916946645.193638</v>
+        <v>3228751004.176804</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001855218441836619</v>
-      </c>
-      <c r="G93" t="b">
+        <v>0.1408638730562842</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04186426810596614</v>
+      </c>
+      <c r="H93" t="b">
         <v>1</v>
       </c>
-      <c r="H93" t="n">
-        <v>28</v>
+      <c r="I93" t="n">
+        <v>25</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1614375552.491231</v>
       </c>
     </row>
     <row r="94">
@@ -3059,19 +3621,25 @@
         <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>7200854159.905437</v>
+        <v>2472187412.251235</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001190464811591603</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>27</v>
+        <v>0.16664119943881</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.02973818363636314</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1236093765.902997</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>4869891592.911101</v>
+        <v>1978045456.146544</v>
       </c>
       <c r="F95" t="n">
-        <v>0.00271930352734788</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>21</v>
+        <v>0.1248142809508854</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03782805638670608</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>20</v>
+      </c>
+      <c r="J95" t="n">
+        <v>989022802.0293239</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>9331372004.147209</v>
+        <v>1590646876.088819</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002581729418606315</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>22</v>
+        <v>0.0876347061429008</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04323369120004676</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>795323468.6419107</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7016170069.858078</v>
+        <v>4798125576.387689</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005276479426048227</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>22</v>
+        <v>0.1544136787782066</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02037200910988228</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>27</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2399062908.661782</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>6748270815.172847</v>
+        <v>2708228481.794105</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004579783501839515</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>31</v>
+        <v>0.09677842144683389</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02257979236506046</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>22</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1354114205.722893</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3013004273.053362</v>
+        <v>2082027009.792829</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004724805242717968</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1023572731863074</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02986804402259956</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>25</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1041013424.223739</v>
       </c>
     </row>
     <row r="100">
@@ -3227,19 +3825,25 @@
         <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4109867581.765219</v>
+        <v>4320592797.195856</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002958003120514471</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
+        <v>0.1311011029264248</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02013107212883991</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>26</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2160296494.7775</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>7515150444.434698</v>
+        <v>3346001275.699226</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001629463955229009</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>27</v>
+        <v>0.1407232502470308</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.03761312841192909</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>36</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1673000772.560657</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_84.xlsx
+++ b/output/fit_clients/fit_round_84.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1734656663.645906</v>
+        <v>1711810142.678058</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08308452216931307</v>
+        <v>0.080111960478902</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04233219526861101</v>
+        <v>0.02831012407448801</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>867328291.7370663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2039484899.339588</v>
+        <v>1797628027.896618</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1715573433760147</v>
+        <v>0.1795270457558882</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03385235179888547</v>
+        <v>0.04506054314152641</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1019742495.760638</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3611411997.897707</v>
+        <v>5160275911.181772</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1629110963318287</v>
+        <v>0.1431865097900414</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03466727619980391</v>
+        <v>0.02763340621471853</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>31</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1805705985.516511</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3182928053.672616</v>
+        <v>2908720577.232112</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1100134451606087</v>
+        <v>0.1061098483556681</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03774303813277687</v>
+        <v>0.0369599087852307</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>31</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1591464084.477893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2712700841.893265</v>
+        <v>2279589288.074457</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1081166429354157</v>
+        <v>0.1273441842170945</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03561025129066192</v>
+        <v>0.05638020629320241</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>13</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1356350373.337878</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2388448601.362075</v>
+        <v>3128983198.034985</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0661634626019177</v>
+        <v>0.07553212821579164</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03363102630985252</v>
+        <v>0.03062861390556179</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>25</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1194224324.387536</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3809648191.320843</v>
+        <v>3181551530.806049</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1440579626148754</v>
+        <v>0.200997889353599</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02409865969548175</v>
+        <v>0.03044627200015519</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>28</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1904824235.85766</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2100893567.964108</v>
+        <v>2283428947.786198</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1945890151422849</v>
+        <v>0.133686089780194</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02383932670214072</v>
+        <v>0.03324573376053746</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1050446796.485804</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4655156295.685695</v>
+        <v>5352966278.471101</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1658557542653203</v>
+        <v>0.1914106153521865</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03388774305419454</v>
+        <v>0.0418148396786553</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>36</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2327578220.372132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3884270986.352894</v>
+        <v>3683515435.098669</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1660326147151001</v>
+        <v>0.1612064265796018</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0404254531473342</v>
+        <v>0.04118893460876672</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>35</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1942135497.689843</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3270059190.584562</v>
+        <v>2250439967.350226</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1493807196557536</v>
+        <v>0.1458856326921312</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03673580096067416</v>
+        <v>0.03403263213003501</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>30</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1635029637.959138</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5319369737.321905</v>
+        <v>5107689583.37022</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07989539264239201</v>
+        <v>0.06791649391771643</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02709216971822712</v>
+        <v>0.02340112593107615</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>28</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2659684856.481711</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3870443187.524988</v>
+        <v>3147266786.492526</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1272228991856129</v>
+        <v>0.1399282071173028</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02917378657272942</v>
+        <v>0.03564242822796409</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>27</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1935221565.068763</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1216199992.440776</v>
+        <v>1158951727.662962</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09558553715620592</v>
+        <v>0.082215030528763</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03382465458955873</v>
+        <v>0.03692171332508101</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>608100017.298048</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2271479127.389132</v>
+        <v>1796763884.723302</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07740246376307508</v>
+        <v>0.07026068123687765</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03516689187818803</v>
+        <v>0.04661206541045048</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1135739614.840106</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4018897446.169832</v>
+        <v>3826037793.177654</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1608938518893626</v>
+        <v>0.1566583662947767</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04091061629517414</v>
+        <v>0.04232853233833044</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>25</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2009448756.681173</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2699984503.345006</v>
+        <v>2920039379.104831</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1565524836905747</v>
+        <v>0.1213938564042668</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02653247474992692</v>
+        <v>0.02864030973776685</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>28</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1349992303.604876</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1372027155.273078</v>
+        <v>1320784023.7903</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1487732968078277</v>
+        <v>0.1675779410071623</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01686311328780482</v>
+        <v>0.01981032261372558</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>686013697.3169663</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1886287766.763868</v>
+        <v>2745549378.006566</v>
       </c>
       <c r="F20" t="n">
-        <v>0.150443990078565</v>
+        <v>0.1088268101312937</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02745823359265004</v>
+        <v>0.01965572820890104</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>11</v>
-      </c>
-      <c r="J20" t="n">
-        <v>943143921.7478055</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2464902214.299892</v>
+        <v>2081654540.477556</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07273120315448589</v>
+        <v>0.09341259331890238</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03191170169247009</v>
+        <v>0.04610313549988427</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1232451098.577947</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2452137823.341831</v>
+        <v>3384574547.312134</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1402187904371756</v>
+        <v>0.1409219831888442</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04838269731788759</v>
+        <v>0.04999832439467528</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>23</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1226069005.93068</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1165119446.959576</v>
+        <v>1181901267.154809</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1848206568452825</v>
+        <v>0.1812288785517973</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04759808929432344</v>
+        <v>0.03435558634935316</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>582559765.7668846</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3849913572.791245</v>
+        <v>3530092225.768229</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1274588401252189</v>
+        <v>0.1290893177577396</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02262179853229722</v>
+        <v>0.02320974101242135</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>25</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1924956764.36124</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1427975293.236103</v>
+        <v>1120602812.74902</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09017453879775195</v>
+        <v>0.09396213151797601</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02564660768389335</v>
+        <v>0.02378669647537387</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>713987612.0559626</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1438669802.447349</v>
+        <v>1118183094.055382</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1220228745646826</v>
+        <v>0.1134502441786525</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03439676703666898</v>
+        <v>0.02357586688090161</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>719334980.6193807</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4348493470.959315</v>
+        <v>4611031080.101645</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1078459885283065</v>
+        <v>0.1196490775732788</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02614262664388204</v>
+        <v>0.02534814938981494</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>19</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2174246728.216996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3469802056.536358</v>
+        <v>2658093025.201073</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09683103621921775</v>
+        <v>0.1272004498615807</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04249308322679117</v>
+        <v>0.03491911177377455</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>26</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1734901080.215251</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5367803112.223921</v>
+        <v>4494977877.955807</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1216854373026376</v>
+        <v>0.09352486523177918</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03377339535380146</v>
+        <v>0.04489775388055579</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>39</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2683901478.050469</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2379088931.073036</v>
+        <v>1992570809.801962</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1011531478676268</v>
+        <v>0.1055046387033988</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02750099631624307</v>
+        <v>0.03646639990356625</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1189544546.075116</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1498231694.310701</v>
+        <v>1016838864.2358</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08042323201777928</v>
+        <v>0.08666921244181988</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0513698365205822</v>
+        <v>0.04652457826815497</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>749115728.3504288</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1510545581.280533</v>
+        <v>1783409244.263184</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07855379273312867</v>
+        <v>0.1165217365020121</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03325176097306834</v>
+        <v>0.02566297576217996</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>755272861.1054761</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1977994775.8998</v>
+        <v>2146412084.156907</v>
       </c>
       <c r="F33" t="n">
-        <v>0.167637777418618</v>
+        <v>0.1722648447620061</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04530748700390209</v>
+        <v>0.0488969149679743</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>24</v>
-      </c>
-      <c r="J33" t="n">
-        <v>988997470.5324273</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1558545200.474486</v>
+        <v>1419636295.261441</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1025675157299391</v>
+        <v>0.1074422567751229</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02816484302399289</v>
+        <v>0.01843552439714292</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>779272546.3878289</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1216943595.585881</v>
+        <v>1268638715.94732</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08572764198700586</v>
+        <v>0.0836494110404494</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04290193518177379</v>
+        <v>0.03521703117023684</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>608471768.7164767</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2606476277.969925</v>
+        <v>2108447707.707224</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1735106604209313</v>
+        <v>0.1671832459068109</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01920871663541171</v>
+        <v>0.02127349448291324</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>21</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1303238152.347422</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2844270807.301185</v>
+        <v>2253939585.799135</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08038582152306789</v>
+        <v>0.07231574332343392</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02682094002944446</v>
+        <v>0.0366507408911998</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>21</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1422135546.982392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1628130861.84792</v>
+        <v>1530593991.668272</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1078510721214627</v>
+        <v>0.1212350043117279</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02900113262315691</v>
+        <v>0.03212097416436455</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>814065461.9995413</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1419288961.181629</v>
+        <v>2203310382.068124</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1664203723441188</v>
+        <v>0.1622683878308608</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02499629972174146</v>
+        <v>0.02189477823384008</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>709644563.2091931</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1547267051.464619</v>
+        <v>1386611140.915449</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1477044973526362</v>
+        <v>0.1458152586904766</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03675274500940685</v>
+        <v>0.04496697304108382</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>773633480.0239289</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1854353363.064331</v>
+        <v>2195476738.68898</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1246441984390598</v>
+        <v>0.1553701642342321</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04333463268665951</v>
+        <v>0.0349147601755047</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>23</v>
-      </c>
-      <c r="J41" t="n">
-        <v>927176769.9057411</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4086031589.078519</v>
+        <v>3443860280.341913</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1192334913694057</v>
+        <v>0.08767832407876089</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03989494717459929</v>
+        <v>0.02927411574151877</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>27</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2043015829.666747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2287062750.18295</v>
+        <v>2439469119.130173</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1403819909942977</v>
+        <v>0.1960798787953421</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01731546088686048</v>
+        <v>0.01682881138272329</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>30</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1143531445.091083</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2298279300.953379</v>
+        <v>1438925282.412515</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09696176894082476</v>
+        <v>0.06209488869255401</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02578563473391061</v>
+        <v>0.0245154217824626</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1149139816.253731</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1983375364.721653</v>
+        <v>2538665227.945833</v>
       </c>
       <c r="F45" t="n">
-        <v>0.128723458982324</v>
+        <v>0.1300362459102911</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03540258135294247</v>
+        <v>0.04873975966523789</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>991687671.4755905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3554221100.527881</v>
+        <v>3483166306.657118</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1398536392508346</v>
+        <v>0.1118527898545343</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05162793077911522</v>
+        <v>0.04513911521225129</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>30</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1777110494.235893</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3482932864.80314</v>
+        <v>3243994468.151859</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1954613472210553</v>
+        <v>0.1791338108601031</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03722274535169656</v>
+        <v>0.03853879768105215</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>23</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1741466402.137698</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3299946763.72413</v>
+        <v>3949295672.631615</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09530422707407725</v>
+        <v>0.08948425990142145</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02916017818379511</v>
+        <v>0.02863432481221773</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>29</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1649973456.813512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1764350428.60896</v>
+        <v>1725534973.324824</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1420178789974629</v>
+        <v>0.1800744647565559</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03261233420387203</v>
+        <v>0.04053768899268864</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>882175205.1240498</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4174277108.802944</v>
+        <v>4088736716.77728</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1122575481967493</v>
+        <v>0.1546607978816785</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03549572716235717</v>
+        <v>0.04023779264781736</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>29</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2087138530.606376</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1506332704.159962</v>
+        <v>1455487589.900438</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1328683777907003</v>
+        <v>0.152650700496475</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03489140219371233</v>
+        <v>0.04909727395108011</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>753166353.9025444</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3625669537.637048</v>
+        <v>3719037752.659282</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1045261446734772</v>
+        <v>0.08419032977208586</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05647581255490797</v>
+        <v>0.05664995282020738</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>35</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1812834847.246039</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2536086133.043049</v>
+        <v>3552198137.099006</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1888746746816372</v>
+        <v>0.1459331031584803</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02460312784711334</v>
+        <v>0.03377304486381656</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>24</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1268043130.932638</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4065361643.979378</v>
+        <v>4560617734.672189</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1596695182662376</v>
+        <v>0.1379562657147198</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0447611605440514</v>
+        <v>0.03251591976286797</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>28</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2032680891.10691</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4684340021.287981</v>
+        <v>3903096844.185168</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1843741016036844</v>
+        <v>0.1922849404739722</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02236794241496837</v>
+        <v>0.02456381106534187</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>22</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2342170015.66449</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1763902352.15017</v>
+        <v>1627593227.592738</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1252742054433871</v>
+        <v>0.1027948744105235</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04265533015616649</v>
+        <v>0.04968333788158126</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>881951179.1233011</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3387555165.487968</v>
+        <v>4250421114.432254</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1509272363391864</v>
+        <v>0.1324947157562564</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02229406051950864</v>
+        <v>0.01707057861005445</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>27</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1693777619.61865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1739715755.244856</v>
+        <v>1739963203.447109</v>
       </c>
       <c r="F58" t="n">
-        <v>0.188640065204034</v>
+        <v>0.1274116824364425</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02738491140725937</v>
+        <v>0.03833427341905897</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>869857886.7943655</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4183698777.422421</v>
+        <v>4267124129.245457</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08139634368136087</v>
+        <v>0.1160609139598525</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03127648606740664</v>
+        <v>0.04668475382883835</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>23</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2091849355.715219</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2710376010.953887</v>
+        <v>3303254261.346869</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1304620060311777</v>
+        <v>0.1909199378297447</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0207212518689367</v>
+        <v>0.03013542539073352</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>25</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1355188045.367524</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3063290066.997353</v>
+        <v>2870485484.373738</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1668501661244257</v>
+        <v>0.1431422751843212</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0249526963174204</v>
+        <v>0.02829178788655668</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>30</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1531645007.919293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1462189745.104947</v>
+        <v>1980169005.787078</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1332281566893628</v>
+        <v>0.1829543676596961</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03317861737951331</v>
+        <v>0.03312704930555017</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>731094849.8764452</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5367856423.611148</v>
+        <v>3705796422.659108</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07106824339140266</v>
+        <v>0.09399918479639009</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04601734522286685</v>
+        <v>0.03648974282400027</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>24</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2683928213.060275</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5464236633.301105</v>
+        <v>5181951623.081413</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1358596015088652</v>
+        <v>0.1670893480395801</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03566857095991881</v>
+        <v>0.02239994064423276</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>26</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2732118455.405716</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5054417088.142206</v>
+        <v>5809961786.908257</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1180200292062667</v>
+        <v>0.1525615421882507</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03130575736883179</v>
+        <v>0.0246580902098845</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>30</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2527208499.65117</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4303896257.600246</v>
+        <v>4275468213.172587</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1057879792711165</v>
+        <v>0.1414528231028108</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04627253688254847</v>
+        <v>0.05088734387356643</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>24</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2151948118.570541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2466062926.819323</v>
+        <v>2120536638.56662</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1033168156422786</v>
+        <v>0.062687447554425</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04512052050933043</v>
+        <v>0.05066256229728959</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>27</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1233031526.811738</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3897985049.014348</v>
+        <v>4044064914.488367</v>
       </c>
       <c r="F68" t="n">
-        <v>0.135770211651904</v>
+        <v>0.117645810469441</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04005985651591026</v>
+        <v>0.03648040599803261</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>27</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1948992514.040364</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2334808872.307643</v>
+        <v>1575081472.306803</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1601651417109651</v>
+        <v>0.1560585179537061</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04287115022223422</v>
+        <v>0.04807038018865147</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1167404484.321485</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3654849061.205078</v>
+        <v>3413324572.749113</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06761740365815888</v>
+        <v>0.08771716786319338</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03219353658350354</v>
+        <v>0.03675698415817011</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>24</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1827424550.113304</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5242387731.523884</v>
+        <v>4853235277.197014</v>
       </c>
       <c r="F71" t="n">
-        <v>0.18133314651009</v>
+        <v>0.1412359142907837</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03161217911462798</v>
+        <v>0.03303375754048599</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>31</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2621193989.471852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1642298729.222348</v>
+        <v>2005911360.8301</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09805356951256441</v>
+        <v>0.09628387379569055</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03402164847930924</v>
+        <v>0.04175829359349034</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>821149368.5817771</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3550179883.314197</v>
+        <v>3094741853.372041</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09040469154967376</v>
+        <v>0.09681013667687061</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03443222416098369</v>
+        <v>0.04621041101743491</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>32</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1775089887.194062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3888960187.592823</v>
+        <v>3044757289.127753</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1564595380038337</v>
+        <v>0.1379978531958955</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03200231243077502</v>
+        <v>0.03010458946495054</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>29</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1944480082.296288</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1704483261.804975</v>
+        <v>1895283860.459045</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1305444559853331</v>
+        <v>0.1072550950569433</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0331033691269642</v>
+        <v>0.03637389599104886</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>852241622.690794</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5202813844.783574</v>
+        <v>3320448756.855882</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1018154005438749</v>
+        <v>0.09531884616687383</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02938244175479443</v>
+        <v>0.03390262533634433</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>18</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2601406957.445393</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1517272495.567258</v>
+        <v>1623480505.903869</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1125046185469605</v>
+        <v>0.1212927867062015</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03080280722139525</v>
+        <v>0.02022950107790653</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>758636237.9564618</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3673352657.102726</v>
+        <v>4380517387.051373</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1369529036053265</v>
+        <v>0.09856056081912677</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05468882358147135</v>
+        <v>0.04980448791048589</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>29</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1836676317.558848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1647376221.662551</v>
+        <v>1746288327.604428</v>
       </c>
       <c r="F79" t="n">
-        <v>0.175543075232406</v>
+        <v>0.1642200058130151</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03673625005305803</v>
+        <v>0.03020425067840369</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>823688170.731495</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5114595765.129058</v>
+        <v>4397087023.543287</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07193024888894488</v>
+        <v>0.07193896815870628</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03573111640559299</v>
+        <v>0.03308996589431269</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>17</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2557297937.375138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4380503005.080954</v>
+        <v>5034044254.292315</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08345142791044866</v>
+        <v>0.1372445434440205</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02636437857288059</v>
+        <v>0.02332810253360953</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>20</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2190251479.79318</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4134493757.17089</v>
+        <v>4115321126.905276</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1950079258813011</v>
+        <v>0.1877814743643402</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02927835045326146</v>
+        <v>0.02516087448106397</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>32</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2067246910.752283</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2400428651.559204</v>
+        <v>2352021023.897263</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1523276888793498</v>
+        <v>0.1307374042200844</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04185389642842457</v>
+        <v>0.02831317781133586</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1200214360.870223</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2194081245.133354</v>
+        <v>2056167069.510482</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09094696674696214</v>
+        <v>0.08576121281011659</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04337189387809869</v>
+        <v>0.04264018292596315</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1097040599.055071</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2742064730.065033</v>
+        <v>3497680540.304671</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1326177453154583</v>
+        <v>0.1156261394204387</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04227820398439132</v>
+        <v>0.04061922023034802</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>32</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1371032396.63676</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2594745579.494668</v>
+        <v>2505208032.014432</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1475194214121185</v>
+        <v>0.1226842805699503</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01740569458767403</v>
+        <v>0.02733164271954312</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>7</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1297372899.973021</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1364139961.527133</v>
+        <v>1245309984.475623</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1739351542819813</v>
+        <v>0.1407527692491443</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02888650512210486</v>
+        <v>0.0430289048268951</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>682070078.3616928</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2716030524.469919</v>
+        <v>3384961747.633633</v>
       </c>
       <c r="F88" t="n">
-        <v>0.178641887458301</v>
+        <v>0.1230447314855754</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02940535708242661</v>
+        <v>0.03309991720271487</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>32</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1358015264.542602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2234808486.165957</v>
+        <v>2254161866.304124</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1434225562382122</v>
+        <v>0.1129695322061614</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04063906071307868</v>
+        <v>0.02763113518421741</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>27</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1117404337.211492</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1545111656.060694</v>
+        <v>1688150496.376034</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1068750909231191</v>
+        <v>0.09542092596485027</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03721994680593033</v>
+        <v>0.05179021262036865</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>772555814.9329271</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1613832497.98133</v>
+        <v>1801781626.850183</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1922961713454293</v>
+        <v>0.1674439810449648</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04581159975524385</v>
+        <v>0.06170143785421271</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>806916272.641593</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2633559887.058729</v>
+        <v>2180458308.03425</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09086357475616737</v>
+        <v>0.07907163735586971</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0416764786937858</v>
+        <v>0.03771187985603919</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>17</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1316779937.479202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3228751004.176804</v>
+        <v>4657206441.571259</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1408638730562842</v>
+        <v>0.1045700959869894</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04186426810596614</v>
+        <v>0.05061612844351019</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>25</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1614375552.491231</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2472187412.251235</v>
+        <v>2458429858.003434</v>
       </c>
       <c r="F94" t="n">
-        <v>0.16664119943881</v>
+        <v>0.136381556319376</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02973818363636314</v>
+        <v>0.0277368480147005</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1236093765.902997</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>1978045456.146544</v>
+        <v>3136367420.551641</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1248142809508854</v>
+        <v>0.08323101172876703</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03782805638670608</v>
+        <v>0.04385110499100371</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>20</v>
-      </c>
-      <c r="J95" t="n">
-        <v>989022802.0293239</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1590646876.088819</v>
+        <v>2304413126.983848</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0876347061429008</v>
+        <v>0.1103221475963279</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04323369120004676</v>
+        <v>0.03986828772086278</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>795323468.6419107</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4798125576.387689</v>
+        <v>4913382426.892168</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1544136787782066</v>
+        <v>0.1234754518737638</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02037200910988228</v>
+        <v>0.02629090188421866</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>27</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2399062908.661782</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2708228481.794105</v>
+        <v>2916314200.779369</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09677842144683389</v>
+        <v>0.09270886837501263</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02257979236506046</v>
+        <v>0.02628845940351912</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>22</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1354114205.722893</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2082027009.792829</v>
+        <v>2178588776.847354</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1023572731863074</v>
+        <v>0.1278653091395919</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02986804402259956</v>
+        <v>0.03046124046530224</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>25</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1041013424.223739</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4320592797.195856</v>
+        <v>3220046781.886631</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1311011029264248</v>
+        <v>0.1229251188478137</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02013107212883991</v>
+        <v>0.02455202597280954</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>26</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2160296494.7775</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3346001275.699226</v>
+        <v>2292590540.147383</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1407232502470308</v>
+        <v>0.1804686945453764</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03761312841192909</v>
+        <v>0.04081789134550023</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>36</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1673000772.560657</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_84.xlsx
+++ b/output/fit_clients/fit_round_84.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1711810142.678058</v>
+        <v>2095697122.846247</v>
       </c>
       <c r="F2" t="n">
-        <v>0.080111960478902</v>
+        <v>0.1057181412816987</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02831012407448801</v>
+        <v>0.03889166861230763</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1797628027.896618</v>
+        <v>2041701259.498584</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1795270457558882</v>
+        <v>0.147712317810257</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04506054314152641</v>
+        <v>0.04915586329428569</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5160275911.181772</v>
+        <v>5029647909.10712</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1431865097900414</v>
+        <v>0.1659059138052926</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02763340621471853</v>
+        <v>0.03567484891408548</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2908720577.232112</v>
+        <v>4122884300.472098</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1061098483556681</v>
+        <v>0.08625338423297112</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0369599087852307</v>
+        <v>0.03989246072608244</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2279589288.074457</v>
+        <v>1965602893.564183</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1273441842170945</v>
+        <v>0.1120142984810272</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05638020629320241</v>
+        <v>0.04971058454404143</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3128983198.034985</v>
+        <v>2924865183.251326</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07553212821579164</v>
+        <v>0.08501613734954913</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03062861390556179</v>
+        <v>0.04881455970263048</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3181551530.806049</v>
+        <v>3747660414.727497</v>
       </c>
       <c r="F8" t="n">
-        <v>0.200997889353599</v>
+        <v>0.2156917930925155</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03044627200015519</v>
+        <v>0.02285673882426187</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2283428947.786198</v>
+        <v>1539076289.062565</v>
       </c>
       <c r="F9" t="n">
-        <v>0.133686089780194</v>
+        <v>0.1720920364484423</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03324573376053746</v>
+        <v>0.02975889110277955</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5352966278.471101</v>
+        <v>4857821020.343012</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1914106153521865</v>
+        <v>0.2068732375528548</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0418148396786553</v>
+        <v>0.03282329252207917</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3683515435.098669</v>
+        <v>2642582121.395363</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1612064265796018</v>
+        <v>0.1541719240646983</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04118893460876672</v>
+        <v>0.03453932211425599</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2250439967.350226</v>
+        <v>2707020505.855991</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1458856326921312</v>
+        <v>0.1205851482626304</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03403263213003501</v>
+        <v>0.0396198400774118</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5107689583.37022</v>
+        <v>4091920500.25302</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06791649391771643</v>
+        <v>0.09543702371431913</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02340112593107615</v>
+        <v>0.02142248429501548</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3147266786.492526</v>
+        <v>3638354429.501936</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1399282071173028</v>
+        <v>0.1312991026349866</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03564242822796409</v>
+        <v>0.03970097865616839</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1158951727.662962</v>
+        <v>1651924796.162534</v>
       </c>
       <c r="F15" t="n">
-        <v>0.082215030528763</v>
+        <v>0.1019001575429264</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03692171332508101</v>
+        <v>0.04695090208740485</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1796763884.723302</v>
+        <v>2345089940.399558</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07026068123687765</v>
+        <v>0.07552555833756813</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04661206541045048</v>
+        <v>0.05168762889199721</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3826037793.177654</v>
+        <v>4398184315.414727</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1566583662947767</v>
+        <v>0.1652129472176166</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04232853233833044</v>
+        <v>0.04867472550617272</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2920039379.104831</v>
+        <v>3915461855.933377</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1213938564042668</v>
+        <v>0.1491082885317459</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02864030973776685</v>
+        <v>0.03369166360954575</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1320784023.7903</v>
+        <v>1040623983.851088</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1675779410071623</v>
+        <v>0.1764562575570665</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01981032261372558</v>
+        <v>0.02599797582606246</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2745549378.006566</v>
+        <v>2754951538.942594</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1088268101312937</v>
+        <v>0.1389413999934735</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01965572820890104</v>
+        <v>0.019469897843766</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2081654540.477556</v>
+        <v>1763795494.392238</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09341259331890238</v>
+        <v>0.0848514245245718</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04610313549988427</v>
+        <v>0.04561538749197926</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3384574547.312134</v>
+        <v>2609522402.42563</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1409219831888442</v>
+        <v>0.1093540798995646</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04999832439467528</v>
+        <v>0.03832477527687431</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1181901267.154809</v>
+        <v>1204854269.988515</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1812288785517973</v>
+        <v>0.1345624584057121</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03435558634935316</v>
+        <v>0.04064239400277646</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3530092225.768229</v>
+        <v>2918853505.107622</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1290893177577396</v>
+        <v>0.09264695886805584</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02320974101242135</v>
+        <v>0.03367107277205045</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1120602812.74902</v>
+        <v>1191809036.27218</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09396213151797601</v>
+        <v>0.09167030809314557</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02378669647537387</v>
+        <v>0.02109592057440476</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1118183094.055382</v>
+        <v>952057684.8108684</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1134502441786525</v>
+        <v>0.1111330455049471</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02357586688090161</v>
+        <v>0.02467216254177403</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4611031080.101645</v>
+        <v>4507413350.558379</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1196490775732788</v>
+        <v>0.1113039857648084</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02534814938981494</v>
+        <v>0.02004668997851205</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2658093025.201073</v>
+        <v>2810918897.092097</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1272004498615807</v>
+        <v>0.1435488905535071</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03491911177377455</v>
+        <v>0.04388561059216059</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4494977877.955807</v>
+        <v>3857025048.98399</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09352486523177918</v>
+        <v>0.100580786070282</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04489775388055579</v>
+        <v>0.04540525328991036</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1992570809.801962</v>
+        <v>1869491026.19543</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1055046387033988</v>
+        <v>0.1287362099738064</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03646639990356625</v>
+        <v>0.02561202735621002</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1016838864.2358</v>
+        <v>908016406.4075569</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08666921244181988</v>
+        <v>0.1031512658596702</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04652457826815497</v>
+        <v>0.03734031092003733</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1783409244.263184</v>
+        <v>1295146251.507438</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1165217365020121</v>
+        <v>0.097095166056908</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02566297576217996</v>
+        <v>0.03243777383079759</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2146412084.156907</v>
+        <v>2028354441.30758</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1722648447620061</v>
+        <v>0.1773845726750605</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0488969149679743</v>
+        <v>0.03700258856626098</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1419636295.261441</v>
+        <v>1349921035.148992</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1074422567751229</v>
+        <v>0.0826766024589882</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01843552439714292</v>
+        <v>0.01773268798706992</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1268638715.94732</v>
+        <v>1079792308.35455</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0836494110404494</v>
+        <v>0.1120765038561387</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03521703117023684</v>
+        <v>0.03506609870947644</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2108447707.707224</v>
+        <v>3009316697.273029</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1671832459068109</v>
+        <v>0.1763960526342832</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02127349448291324</v>
+        <v>0.02229494453010931</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2253939585.799135</v>
+        <v>2748614521.834994</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07231574332343392</v>
+        <v>0.09995276602936549</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0366507408911998</v>
+        <v>0.03154389950141562</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1530593991.668272</v>
+        <v>2052494579.465609</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1212350043117279</v>
+        <v>0.1141540102761417</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03212097416436455</v>
+        <v>0.03095407751124923</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2203310382.068124</v>
+        <v>2208303733.040935</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1622683878308608</v>
+        <v>0.1455426423770098</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02189477823384008</v>
+        <v>0.02208774403531959</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1386611140.915449</v>
+        <v>1565200995.897209</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1458152586904766</v>
+        <v>0.1294560207900266</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04496697304108382</v>
+        <v>0.04985625704059917</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2195476738.68898</v>
+        <v>2124983164.384556</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1553701642342321</v>
+        <v>0.1511108818498186</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0349147601755047</v>
+        <v>0.03889992360467091</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3443860280.341913</v>
+        <v>2692716671.910151</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08767832407876089</v>
+        <v>0.07806363182546215</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02927411574151877</v>
+        <v>0.03946072078005784</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2439469119.130173</v>
+        <v>2897471544.65484</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1960798787953421</v>
+        <v>0.1823359694120928</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01682881138272329</v>
+        <v>0.02049658771395174</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1438925282.412515</v>
+        <v>2313534001.206209</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06209488869255401</v>
+        <v>0.09013044207518024</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0245154217824626</v>
+        <v>0.03260228362669643</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2538665227.945833</v>
+        <v>1652545364.932869</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1300362459102911</v>
+        <v>0.1511470507390907</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04873975966523789</v>
+        <v>0.03770409745566593</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3483166306.657118</v>
+        <v>3637395433.011628</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1118527898545343</v>
+        <v>0.1353713728867947</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04513911521225129</v>
+        <v>0.04179895181077469</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3243994468.151859</v>
+        <v>4772861433.213006</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1791338108601031</v>
+        <v>0.1689755261855891</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03853879768105215</v>
+        <v>0.04563269744405197</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3949295672.631615</v>
+        <v>4513446635.081872</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08948425990142145</v>
+        <v>0.1098603827350712</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02863432481221773</v>
+        <v>0.02833177053361793</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1725534973.324824</v>
+        <v>1225300918.28048</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1800744647565559</v>
+        <v>0.160352971510344</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04053768899268864</v>
+        <v>0.04350133745718282</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4088736716.77728</v>
+        <v>2641188953.383596</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1546607978816785</v>
+        <v>0.1769079458406558</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04023779264781736</v>
+        <v>0.04301933298375354</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1455487589.900438</v>
+        <v>1106148761.708152</v>
       </c>
       <c r="F51" t="n">
-        <v>0.152650700496475</v>
+        <v>0.1360390801932172</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04909727395108011</v>
+        <v>0.05143052520967117</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3719037752.659282</v>
+        <v>3828804790.909933</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08419032977208586</v>
+        <v>0.08466704921917595</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05664995282020738</v>
+        <v>0.04446263134820412</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3552198137.099006</v>
+        <v>3508712909.543283</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1459331031584803</v>
+        <v>0.1614535151990734</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03377304486381656</v>
+        <v>0.03129710303537991</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4560617734.672189</v>
+        <v>3554689451.290566</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1379562657147198</v>
+        <v>0.1608792053074967</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03251591976286797</v>
+        <v>0.03723024989371176</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3903096844.185168</v>
+        <v>3193436531.671795</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1922849404739722</v>
+        <v>0.2125777067490679</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02456381106534187</v>
+        <v>0.03226566897004897</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1627593227.592738</v>
+        <v>1577861775.025959</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1027948744105235</v>
+        <v>0.1557691008372667</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04968333788158126</v>
+        <v>0.04211788961303916</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4250421114.432254</v>
+        <v>4575566269.408836</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1324947157562564</v>
+        <v>0.1838527213723618</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01707057861005445</v>
+        <v>0.0224192955260584</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1739963203.447109</v>
+        <v>1866107696.528281</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1274116824364425</v>
+        <v>0.1596893226803048</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03833427341905897</v>
+        <v>0.0277248421028575</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4267124129.245457</v>
+        <v>4934475908.042058</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1160609139598525</v>
+        <v>0.08420808287434478</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04668475382883835</v>
+        <v>0.0323657746352316</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3303254261.346869</v>
+        <v>2468097431.586978</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1909199378297447</v>
+        <v>0.1877829490760177</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03013542539073352</v>
+        <v>0.02658236683831999</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2870485484.373738</v>
+        <v>3012115760.492594</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1431422751843212</v>
+        <v>0.1279836317437305</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02829178788655668</v>
+        <v>0.02362006581301499</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1980169005.787078</v>
+        <v>1504472340.138396</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1829543676596961</v>
+        <v>0.1518656493806703</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03312704930555017</v>
+        <v>0.0426101161583186</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3705796422.659108</v>
+        <v>4208810037.035104</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09399918479639009</v>
+        <v>0.1057563024675854</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03648974282400027</v>
+        <v>0.03367779569065416</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5181951623.081413</v>
+        <v>4592837304.537475</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1670893480395801</v>
+        <v>0.1760591041918027</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02239994064423276</v>
+        <v>0.03274741924222486</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5809961786.908257</v>
+        <v>4961363988.106882</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1525615421882507</v>
+        <v>0.1068291172502838</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0246580902098845</v>
+        <v>0.01954944665720662</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4275468213.172587</v>
+        <v>3750138244.14029</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1414528231028108</v>
+        <v>0.1587983261677658</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05088734387356643</v>
+        <v>0.04389804508511563</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2120536638.56662</v>
+        <v>2485955248.421155</v>
       </c>
       <c r="F67" t="n">
-        <v>0.062687447554425</v>
+        <v>0.07633911132171595</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05066256229728959</v>
+        <v>0.03820647351325087</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4044064914.488367</v>
+        <v>5417881965.599217</v>
       </c>
       <c r="F68" t="n">
-        <v>0.117645810469441</v>
+        <v>0.1007128180748543</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03648040599803261</v>
+        <v>0.04193674476620083</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1575081472.306803</v>
+        <v>1819863248.367526</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1560585179537061</v>
+        <v>0.1690420139297342</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04807038018865147</v>
+        <v>0.03674267132798945</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3413324572.749113</v>
+        <v>3146133710.175432</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08771716786319338</v>
+        <v>0.06214482909538428</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03675698415817011</v>
+        <v>0.04085136480964146</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4853235277.197014</v>
+        <v>3586305469.467887</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1412359142907837</v>
+        <v>0.1638916053336759</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03303375754048599</v>
+        <v>0.03080782639815996</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2005911360.8301</v>
+        <v>1775489245.235441</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09628387379569055</v>
+        <v>0.08973897633597065</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04175829359349034</v>
+        <v>0.04963571247326801</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3094741853.372041</v>
+        <v>2190206473.852144</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09681013667687061</v>
+        <v>0.1118167460620441</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04621041101743491</v>
+        <v>0.0382733316551679</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3044757289.127753</v>
+        <v>2698200868.426286</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1379978531958955</v>
+        <v>0.1830376475759776</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03010458946495054</v>
+        <v>0.02607620921610803</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1895283860.459045</v>
+        <v>2211692967.994123</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1072550950569433</v>
+        <v>0.1604567723743376</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03637389599104886</v>
+        <v>0.03196973778165951</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3320448756.855882</v>
+        <v>5252111966.549588</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09531884616687383</v>
+        <v>0.07809641302936569</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03390262533634433</v>
+        <v>0.02195644283575554</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1623480505.903869</v>
+        <v>2044853192.200063</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1212927867062015</v>
+        <v>0.1382127536702422</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02022950107790653</v>
+        <v>0.03131050486815461</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4380517387.051373</v>
+        <v>4611839661.225616</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09856056081912677</v>
+        <v>0.1234964852058542</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04980448791048589</v>
+        <v>0.04448497431919531</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1746288327.604428</v>
+        <v>1717596040.376937</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1642200058130151</v>
+        <v>0.1541061089948323</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03020425067840369</v>
+        <v>0.03917392771365284</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4397087023.543287</v>
+        <v>5109496829.059014</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07193896815870628</v>
+        <v>0.09260833530480074</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03308996589431269</v>
+        <v>0.03244285186414322</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5034044254.292315</v>
+        <v>4926280782.233841</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1372445434440205</v>
+        <v>0.1286362902802838</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02332810253360953</v>
+        <v>0.02902900192261831</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4115321126.905276</v>
+        <v>3983220780.066024</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1877814743643402</v>
+        <v>0.1721201299782894</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02516087448106397</v>
+        <v>0.02357478121569641</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2352021023.897263</v>
+        <v>1515467219.706791</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1307374042200844</v>
+        <v>0.1099041005765583</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02831317781133586</v>
+        <v>0.03568638356373933</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2056167069.510482</v>
+        <v>1787173277.056574</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08576121281011659</v>
+        <v>0.1141339101974831</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04264018292596315</v>
+        <v>0.03431104712904063</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3497680540.304671</v>
+        <v>3546040831.813838</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1156261394204387</v>
+        <v>0.1407304162769693</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04061922023034802</v>
+        <v>0.04079992760115566</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2505208032.014432</v>
+        <v>1778293262.016512</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1226842805699503</v>
+        <v>0.1442948738030088</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02733164271954312</v>
+        <v>0.02077181075696263</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1245309984.475623</v>
+        <v>1422268849.616606</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1407527692491443</v>
+        <v>0.1562130820580082</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0430289048268951</v>
+        <v>0.02859974637442613</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3384961747.633633</v>
+        <v>3296161609.950409</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1230447314855754</v>
+        <v>0.1411061093840471</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03309991720271487</v>
+        <v>0.02575289815097406</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2254161866.304124</v>
+        <v>2820978072.856885</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1129695322061614</v>
+        <v>0.126087106973658</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02763113518421741</v>
+        <v>0.03203117618536452</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1688150496.376034</v>
+        <v>1495170243.867553</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09542092596485027</v>
+        <v>0.1121181894863489</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05179021262036865</v>
+        <v>0.04392005707065223</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1801781626.850183</v>
+        <v>1828902559.217714</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1674439810449648</v>
+        <v>0.1320217539712763</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06170143785421271</v>
+        <v>0.04028696091059304</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2180458308.03425</v>
+        <v>2031195795.314796</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07907163735586971</v>
+        <v>0.1090903534154319</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03771187985603919</v>
+        <v>0.03476284985659368</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4657206441.571259</v>
+        <v>4748271617.5662</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1045700959869894</v>
+        <v>0.09448833790764355</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05061612844351019</v>
+        <v>0.0414617088905009</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2458429858.003434</v>
+        <v>1755808215.312712</v>
       </c>
       <c r="F94" t="n">
-        <v>0.136381556319376</v>
+        <v>0.111336007254515</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0277368480147005</v>
+        <v>0.03933320173912773</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3136367420.551641</v>
+        <v>2664448966.982676</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08323101172876703</v>
+        <v>0.1251009832847295</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04385110499100371</v>
+        <v>0.05243791633324843</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2304413126.983848</v>
+        <v>2169724677.390654</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1103221475963279</v>
+        <v>0.1181075509439808</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03986828772086278</v>
+        <v>0.04526823349771614</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4913382426.892168</v>
+        <v>4669010534.320422</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1234754518737638</v>
+        <v>0.1209326054076985</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02629090188421866</v>
+        <v>0.02217820610897326</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2916314200.779369</v>
+        <v>3388554216.756267</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09270886837501263</v>
+        <v>0.1003755738819943</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02628845940351912</v>
+        <v>0.03163473550400703</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2178588776.847354</v>
+        <v>2941947968.572776</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1278653091395919</v>
+        <v>0.1242717834060261</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03046124046530224</v>
+        <v>0.02901545382664311</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3220046781.886631</v>
+        <v>3462530756.813466</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1229251188478137</v>
+        <v>0.1330419000276274</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02455202597280954</v>
+        <v>0.01864198456343503</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2292590540.147383</v>
+        <v>2658175372.561413</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1804686945453764</v>
+        <v>0.1654015892742467</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04081789134550023</v>
+        <v>0.05859223644228232</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_84.xlsx
+++ b/output/fit_clients/fit_round_84.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2095697122.846247</v>
+        <v>1952819240.843264</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1057181412816987</v>
+        <v>0.07771956541331802</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03889166861230763</v>
+        <v>0.04000172238690469</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2041701259.498584</v>
+        <v>1596485171.764643</v>
       </c>
       <c r="F3" t="n">
-        <v>0.147712317810257</v>
+        <v>0.1416159110207884</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04915586329428569</v>
+        <v>0.04890118235733957</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5029647909.10712</v>
+        <v>3744226784.184535</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1659059138052926</v>
+        <v>0.1387080682968454</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03567484891408548</v>
+        <v>0.03801758306157029</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>53</v>
+      </c>
+      <c r="J4" t="n">
+        <v>84</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4122884300.472098</v>
+        <v>2822163722.75392</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08625338423297112</v>
+        <v>0.09536425059187249</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03989246072608244</v>
+        <v>0.04494889821310227</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>37</v>
+      </c>
+      <c r="J5" t="n">
+        <v>83</v>
+      </c>
+      <c r="K5" t="n">
+        <v>109.405449709925</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1965602893.564183</v>
+        <v>1868313308.870769</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1120142984810272</v>
+        <v>0.1025035675643807</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04971058454404143</v>
+        <v>0.03916157081022356</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2924865183.251326</v>
+        <v>2512097402.310354</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08501613734954913</v>
+        <v>0.07055245419267714</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04881455970263048</v>
+        <v>0.03692388341551413</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +713,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3747660414.727497</v>
+        <v>3245981961.621003</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2156917930925155</v>
+        <v>0.1614365375178138</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02285673882426187</v>
+        <v>0.02990795497062031</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>22</v>
+      </c>
+      <c r="J8" t="n">
+        <v>83</v>
+      </c>
+      <c r="K8" t="n">
+        <v>130.6425443496509</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1539076289.062565</v>
+        <v>1412304282.728786</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1720920364484423</v>
+        <v>0.1957322864446616</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02975889110277955</v>
+        <v>0.02270448989086841</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4857821020.343012</v>
+        <v>5075708475.491648</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2068732375528548</v>
+        <v>0.1743833887604291</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03282329252207917</v>
+        <v>0.03875239081299943</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>78</v>
+      </c>
+      <c r="J10" t="n">
+        <v>84</v>
+      </c>
+      <c r="K10" t="n">
+        <v>196.3311905841859</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2642582121.395363</v>
+        <v>4196867271.414624</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1541719240646983</v>
+        <v>0.1706084785841728</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03453932211425599</v>
+        <v>0.04018872644158335</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>35</v>
+      </c>
+      <c r="J11" t="n">
+        <v>84</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2707020505.855991</v>
+        <v>3190669470.692618</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1205851482626304</v>
+        <v>0.1807325132446423</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0396198400774118</v>
+        <v>0.04753607394895874</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4091920500.25302</v>
+        <v>4974137141.097668</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09543702371431913</v>
+        <v>0.0926575556110999</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02142248429501548</v>
+        <v>0.02346799803602427</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>42</v>
+      </c>
+      <c r="J13" t="n">
+        <v>84</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3638354429.501936</v>
+        <v>3034794986.818778</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1312991026349866</v>
+        <v>0.1795245516477829</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03970097865616839</v>
+        <v>0.03192118145019781</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>16</v>
+      </c>
+      <c r="J14" t="n">
+        <v>79</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1651924796.162534</v>
+        <v>1117650141.057251</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1019001575429264</v>
+        <v>0.09655475922153331</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04695090208740485</v>
+        <v>0.04914508922775656</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2345089940.399558</v>
+        <v>1948517015.268714</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07552555833756813</v>
+        <v>0.1137442946738672</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05168762889199721</v>
+        <v>0.03945702731405194</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4398184315.414727</v>
+        <v>4103626982.468506</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1652129472176166</v>
+        <v>0.1254530387274554</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04867472550617272</v>
+        <v>0.03322841841465189</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>40</v>
+      </c>
+      <c r="J17" t="n">
+        <v>84</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3915461855.933377</v>
+        <v>4000938845.742625</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1491082885317459</v>
+        <v>0.1206546985523884</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03369166360954575</v>
+        <v>0.03386833155267899</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>21</v>
+      </c>
+      <c r="J18" t="n">
+        <v>84</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1040623983.851088</v>
+        <v>1191464589.456488</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1764562575570665</v>
+        <v>0.182368879775143</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02599797582606246</v>
+        <v>0.02373347733543657</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2754951538.942594</v>
+        <v>2151049081.273453</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1389413999934735</v>
+        <v>0.1116812138735127</v>
       </c>
       <c r="G20" t="n">
-        <v>0.019469897843766</v>
+        <v>0.02195806935955815</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1763795494.392238</v>
+        <v>1925316531.659869</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0848514245245718</v>
+        <v>0.06361533929997365</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04561538749197926</v>
+        <v>0.0342708141807816</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2609522402.42563</v>
+        <v>3762115376.932522</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1093540798995646</v>
+        <v>0.1145320566847829</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03832477527687431</v>
+        <v>0.03792702735115305</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
+        <v>84</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1242,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1204854269.988515</v>
+        <v>1493449586.000191</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1345624584057121</v>
+        <v>0.1229669470245189</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04064239400277646</v>
+        <v>0.04125156420626346</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2918853505.107622</v>
+        <v>3239480451.634978</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09264695886805584</v>
+        <v>0.1165992077551162</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03367107277205045</v>
+        <v>0.03672214022069568</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>27</v>
+      </c>
+      <c r="J24" t="n">
+        <v>82</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1312,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1191809036.27218</v>
+        <v>1419363010.047377</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09167030809314557</v>
+        <v>0.0999936569037515</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02109592057440476</v>
+        <v>0.02636007523203756</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>952057684.8108684</v>
+        <v>1297192528.656325</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1111330455049471</v>
+        <v>0.1020374282820486</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02467216254177403</v>
+        <v>0.02834294464151333</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1376,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4507413350.558379</v>
+        <v>4578865000.447348</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1113039857648084</v>
+        <v>0.1425289231783859</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02004668997851205</v>
+        <v>0.01694575657411421</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>33</v>
+      </c>
+      <c r="J27" t="n">
+        <v>84</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1417,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2810918897.092097</v>
+        <v>3524123252.528787</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1435488905535071</v>
+        <v>0.1458477336054262</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04388561059216059</v>
+        <v>0.04812917470375892</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>21</v>
+      </c>
+      <c r="J28" t="n">
+        <v>84</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1452,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3857025048.98399</v>
+        <v>5137822450.941297</v>
       </c>
       <c r="F29" t="n">
-        <v>0.100580786070282</v>
+        <v>0.1222882709259157</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04540525328991036</v>
+        <v>0.03636124324392447</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>78</v>
+      </c>
+      <c r="J29" t="n">
+        <v>84</v>
+      </c>
+      <c r="K29" t="n">
+        <v>206.5852296731378</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1869491026.19543</v>
+        <v>2127870716.122793</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1287362099738064</v>
+        <v>0.1180176411706418</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02561202735621002</v>
+        <v>0.03538522709088159</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>908016406.4075569</v>
+        <v>1093116938.173249</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1031512658596702</v>
+        <v>0.09622789882003351</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03734031092003733</v>
+        <v>0.05101987550406388</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1295146251.507438</v>
+        <v>1339784113.191651</v>
       </c>
       <c r="F32" t="n">
-        <v>0.097095166056908</v>
+        <v>0.08201134104656588</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03243777383079759</v>
+        <v>0.02487331480425499</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2028354441.30758</v>
+        <v>2045300498.99508</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1773845726750605</v>
+        <v>0.130116888447711</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03700258856626098</v>
+        <v>0.03710629905441309</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1349921035.148992</v>
+        <v>1310795217.695153</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0826766024589882</v>
+        <v>0.1068435066485872</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01773268798706992</v>
+        <v>0.02482538227658142</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1079792308.35455</v>
+        <v>1256903401.537091</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1120765038561387</v>
+        <v>0.1005523947715568</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03506609870947644</v>
+        <v>0.04351926005209865</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3009316697.273029</v>
+        <v>2456568994.033609</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1763960526342832</v>
+        <v>0.1251617223636846</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02229494453010931</v>
+        <v>0.02529275588412047</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1734,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2748614521.834994</v>
+        <v>2178109159.198947</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09995276602936549</v>
+        <v>0.1008015721060017</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03154389950141562</v>
+        <v>0.02594881459583669</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1769,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2052494579.465609</v>
+        <v>2018677594.107057</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1141540102761417</v>
+        <v>0.10498914567528</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03095407751124923</v>
+        <v>0.03301458333897925</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2208303733.040935</v>
+        <v>1841769534.43384</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1455426423770098</v>
+        <v>0.1307026276367835</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02208774403531959</v>
+        <v>0.02340829115731469</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1839,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1565200995.897209</v>
+        <v>1479090288.565619</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1294560207900266</v>
+        <v>0.1113575794345481</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04985625704059917</v>
+        <v>0.05814162359452351</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1874,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2124983164.384556</v>
+        <v>2924947073.930732</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1511108818498186</v>
+        <v>0.1581345936406462</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03889992360467091</v>
+        <v>0.04193135777543136</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1903,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2692716671.910151</v>
+        <v>4321704993.985018</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07806363182546215</v>
+        <v>0.1227011768552117</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03946072078005784</v>
+        <v>0.03308639601292099</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>32</v>
+      </c>
+      <c r="J42" t="n">
+        <v>84</v>
+      </c>
+      <c r="K42" t="n">
+        <v>174.4307193006732</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1946,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2897471544.65484</v>
+        <v>2689972979.208513</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1823359694120928</v>
+        <v>0.1937752602434649</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02049658771395174</v>
+        <v>0.02256895258799779</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2313534001.206209</v>
+        <v>1612649929.776622</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09013044207518024</v>
+        <v>0.08654542302528317</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03260228362669643</v>
+        <v>0.02289436646864752</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1652545364.932869</v>
+        <v>2074171338.565848</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1511470507390907</v>
+        <v>0.1621473671142533</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03770409745566593</v>
+        <v>0.04397294940676609</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2045,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3637395433.011628</v>
+        <v>3553588340.988957</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1353713728867947</v>
+        <v>0.1422426513096078</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04179895181077469</v>
+        <v>0.05100230054179862</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>48</v>
+      </c>
+      <c r="J46" t="n">
+        <v>84</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2080,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4772861433.213006</v>
+        <v>3999176851.508378</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1689755261855891</v>
+        <v>0.1973357231400333</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04563269744405197</v>
+        <v>0.05537975165301148</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>38</v>
+      </c>
+      <c r="J47" t="n">
+        <v>83</v>
+      </c>
+      <c r="K47" t="n">
+        <v>147.7814911830043</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2117,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4513446635.081872</v>
+        <v>2846098332.888329</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1098603827350712</v>
+        <v>0.09615230952536685</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02833177053361793</v>
+        <v>0.03263089406765546</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>32</v>
+      </c>
+      <c r="J48" t="n">
+        <v>82</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2158,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1225300918.28048</v>
+        <v>1512376993.739159</v>
       </c>
       <c r="F49" t="n">
-        <v>0.160352971510344</v>
+        <v>0.1858063775380529</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04350133745718282</v>
+        <v>0.04068472428958175</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2193,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2641188953.383596</v>
+        <v>2873880598.838653</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1769079458406558</v>
+        <v>0.1081928987454723</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04301933298375354</v>
+        <v>0.05171891044579977</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>30</v>
+      </c>
+      <c r="J50" t="n">
+        <v>82</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1106148761.708152</v>
+        <v>1103687725.526016</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1360390801932172</v>
+        <v>0.1591122032987199</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05143052520967117</v>
+        <v>0.05123554241000349</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2257,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3828804790.909933</v>
+        <v>3380915240.190461</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08466704921917595</v>
+        <v>0.09954874931380096</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04446263134820412</v>
+        <v>0.04027612973294935</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>65</v>
+      </c>
+      <c r="J52" t="n">
+        <v>83</v>
+      </c>
+      <c r="K52" t="n">
+        <v>149.8651218723</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3508712909.543283</v>
+        <v>2414317513.615894</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1614535151990734</v>
+        <v>0.1461148942636739</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03129710303537991</v>
+        <v>0.03514720030166604</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>9</v>
+      </c>
+      <c r="J53" t="n">
+        <v>82</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2329,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3554689451.290566</v>
+        <v>3551253143.308633</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1608792053074967</v>
+        <v>0.1047739893330973</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03723024989371176</v>
+        <v>0.04711846542638782</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>38</v>
+      </c>
+      <c r="J54" t="n">
+        <v>83</v>
+      </c>
+      <c r="K54" t="n">
+        <v>157.1943119827299</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2366,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3193436531.671795</v>
+        <v>3487791537.188923</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2125777067490679</v>
+        <v>0.1470742564194822</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03226566897004897</v>
+        <v>0.02832184656422843</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>38</v>
+      </c>
+      <c r="J55" t="n">
+        <v>82</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1577861775.025959</v>
+        <v>1457619100.699409</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1557691008372667</v>
+        <v>0.1253296622012571</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04211788961303916</v>
+        <v>0.0383868944973393</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4575566269.408836</v>
+        <v>3758387642.009597</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1838527213723618</v>
+        <v>0.1309123046126018</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0224192955260584</v>
+        <v>0.02053718744860898</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>31</v>
+      </c>
+      <c r="J57" t="n">
+        <v>83</v>
+      </c>
+      <c r="K57" t="n">
+        <v>169.3450821246934</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2479,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1866107696.528281</v>
+        <v>1331154262.757465</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1596893226803048</v>
+        <v>0.1721093573332589</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0277248421028575</v>
+        <v>0.03305014395518386</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4934475908.042058</v>
+        <v>4854026267.661226</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08420808287434478</v>
+        <v>0.1208421234031757</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0323657746352316</v>
+        <v>0.03876680104936016</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>41</v>
+      </c>
+      <c r="J59" t="n">
+        <v>83</v>
+      </c>
+      <c r="K59" t="n">
+        <v>158.3142451293236</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2545,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2468097431.586978</v>
+        <v>2932412149.145445</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1877829490760177</v>
+        <v>0.1492535818512641</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02658236683831999</v>
+        <v>0.02125908718448847</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>11</v>
+      </c>
+      <c r="J60" t="n">
+        <v>83</v>
+      </c>
+      <c r="K60" t="n">
+        <v>104.1406061404977</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3012115760.492594</v>
+        <v>2972919567.535862</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1279836317437305</v>
+        <v>0.1529222247479038</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02362006581301499</v>
+        <v>0.02424843788911303</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1504472340.138396</v>
+        <v>1494600250.577142</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1518656493806703</v>
+        <v>0.1616667664448876</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0426101161583186</v>
+        <v>0.0472655316802361</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4208810037.035104</v>
+        <v>3971958330.721196</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1057563024675854</v>
+        <v>0.07150870689704139</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03367779569065416</v>
+        <v>0.04190900662332178</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>41</v>
+      </c>
+      <c r="J63" t="n">
+        <v>84</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2693,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4592837304.537475</v>
+        <v>5252628757.477743</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1760591041918027</v>
+        <v>0.1868430027621888</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03274741924222486</v>
+        <v>0.02799429016495091</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>41</v>
+      </c>
+      <c r="J64" t="n">
+        <v>84</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2722,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4961363988.106882</v>
+        <v>4637498339.889022</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1068291172502838</v>
+        <v>0.1117897245119394</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01954944665720662</v>
+        <v>0.02200969172024035</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>67</v>
+      </c>
+      <c r="J65" t="n">
+        <v>84</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2757,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3750138244.14029</v>
+        <v>4758161502.335932</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1587983261677658</v>
+        <v>0.1241200296968769</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04389804508511563</v>
+        <v>0.04952394832620551</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>41</v>
+      </c>
+      <c r="J66" t="n">
+        <v>84</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2792,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2485955248.421155</v>
+        <v>2692091824.725223</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07633911132171595</v>
+        <v>0.08585934810724155</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03820647351325087</v>
+        <v>0.04703748920809658</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2827,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5417881965.599217</v>
+        <v>5773166742.432813</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1007128180748543</v>
+        <v>0.1603046502941481</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04193674476620083</v>
+        <v>0.04112841525611627</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>42</v>
+      </c>
+      <c r="J68" t="n">
+        <v>83</v>
+      </c>
+      <c r="K68" t="n">
+        <v>166.9312930689917</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1819863248.367526</v>
+        <v>1605733489.828455</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1690420139297342</v>
+        <v>0.1781333303656522</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03674267132798945</v>
+        <v>0.04970011250086798</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3146133710.175432</v>
+        <v>2467258427.98345</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06214482909538428</v>
+        <v>0.07614661076761375</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04085136480964146</v>
+        <v>0.0375313309541051</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>10</v>
+      </c>
+      <c r="J70" t="n">
+        <v>81</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2940,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3586305469.467887</v>
+        <v>3709623021.454519</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1638916053336759</v>
+        <v>0.1274611422388911</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03080782639815996</v>
+        <v>0.03164463547296611</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>70</v>
+      </c>
+      <c r="J71" t="n">
+        <v>84</v>
+      </c>
+      <c r="K71" t="n">
+        <v>176.9943526025778</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1775489245.235441</v>
+        <v>1919998835.94374</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08973897633597065</v>
+        <v>0.0913766980694518</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04963571247326801</v>
+        <v>0.05022308970676781</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3012,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2190206473.852144</v>
+        <v>3161299013.341329</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1118167460620441</v>
+        <v>0.1054433353925233</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0382733316551679</v>
+        <v>0.03992792324819879</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3041,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2698200868.426286</v>
+        <v>3616058738.362447</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1830376475759776</v>
+        <v>0.1574983336002106</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02607620921610803</v>
+        <v>0.02371124314212586</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>25</v>
+      </c>
+      <c r="J74" t="n">
+        <v>84</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2211692967.994123</v>
+        <v>2015556250.376982</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1604567723743376</v>
+        <v>0.1555173190363749</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03196973778165951</v>
+        <v>0.03771929912636275</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3111,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5252111966.549588</v>
+        <v>5116569453.398725</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07809641302936569</v>
+        <v>0.1095256947773841</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02195644283575554</v>
+        <v>0.02527553914636041</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>38</v>
+      </c>
+      <c r="J76" t="n">
+        <v>84</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3146,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2044853192.200063</v>
+        <v>1714083891.939917</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1382127536702422</v>
+        <v>0.1677060746194809</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03131050486815461</v>
+        <v>0.03166372612542287</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3187,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4611839661.225616</v>
+        <v>3464606096.368217</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1234964852058542</v>
+        <v>0.1223018529711617</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04448497431919531</v>
+        <v>0.0407664407861995</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>40</v>
+      </c>
+      <c r="J78" t="n">
+        <v>83</v>
+      </c>
+      <c r="K78" t="n">
+        <v>157.6888058261893</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1717596040.376937</v>
+        <v>1563146596.26298</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1541061089948323</v>
+        <v>0.1114083258265841</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03917392771365284</v>
+        <v>0.0277699853727233</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3253,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5109496829.059014</v>
+        <v>5549843194.281695</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09260833530480074</v>
+        <v>0.09586842136215071</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03244285186414322</v>
+        <v>0.02358426125595558</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>40</v>
+      </c>
+      <c r="J80" t="n">
+        <v>83</v>
+      </c>
+      <c r="K80" t="n">
+        <v>136.9386678944174</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +3296,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4926280782.233841</v>
+        <v>4440661326.137738</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1286362902802838</v>
+        <v>0.09935247767030952</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02902900192261831</v>
+        <v>0.03032725812529173</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>38</v>
+      </c>
+      <c r="J81" t="n">
+        <v>83</v>
+      </c>
+      <c r="K81" t="n">
+        <v>144.7636392701783</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3983220780.066024</v>
+        <v>3785135524.948232</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1721201299782894</v>
+        <v>0.1605078148622211</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02357478121569641</v>
+        <v>0.02313028239529247</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>53</v>
+      </c>
+      <c r="J82" t="n">
+        <v>84</v>
+      </c>
+      <c r="K82" t="n">
+        <v>185.4286031663266</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1515467219.706791</v>
+        <v>1705521125.734131</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1099041005765583</v>
+        <v>0.1077819165282647</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03568638356373933</v>
+        <v>0.02840468233523498</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1787173277.056574</v>
+        <v>2349991509.39088</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1141339101974831</v>
+        <v>0.1005294670150336</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03431104712904063</v>
+        <v>0.03150069506174999</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3546040831.813838</v>
+        <v>2935226123.469675</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1407304162769693</v>
+        <v>0.1777469240955397</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04079992760115566</v>
+        <v>0.05494495627365622</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>14</v>
+      </c>
+      <c r="J85" t="n">
+        <v>80</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1778293262.016512</v>
+        <v>2150009333.111321</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1442948738030088</v>
+        <v>0.1045823996793936</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02077181075696263</v>
+        <v>0.02052580519731772</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1422268849.616606</v>
+        <v>1002279312.286524</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1562130820580082</v>
+        <v>0.1246891148220332</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02859974637442613</v>
+        <v>0.03799237877277864</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3545,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3296161609.950409</v>
+        <v>2332016660.502191</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1411061093840471</v>
+        <v>0.1676107696965499</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02575289815097406</v>
+        <v>0.03892727540872552</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>11</v>
+      </c>
+      <c r="J88" t="n">
+        <v>81</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2820978072.856885</v>
+        <v>3334485126.874096</v>
       </c>
       <c r="F89" t="n">
-        <v>0.126087106973658</v>
+        <v>0.1283660650095939</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03203117618536452</v>
+        <v>0.03072508371856305</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>79</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3615,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1495170243.867553</v>
+        <v>1833029420.878587</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1121181894863489</v>
+        <v>0.09100586240078662</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04392005707065223</v>
+        <v>0.04423655085962718</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1828902559.217714</v>
+        <v>1340772619.841434</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1320217539712763</v>
+        <v>0.1265620535266342</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04028696091059304</v>
+        <v>0.05589422146308686</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3685,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2031195795.314796</v>
+        <v>2036805857.963645</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1090903534154319</v>
+        <v>0.07906654647726195</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03476284985659368</v>
+        <v>0.04329526908146713</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4748271617.5662</v>
+        <v>4626509198.71588</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09448833790764355</v>
+        <v>0.1414794898278668</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0414617088905009</v>
+        <v>0.04290872735603524</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>38</v>
+      </c>
+      <c r="J93" t="n">
+        <v>83</v>
+      </c>
+      <c r="K93" t="n">
+        <v>162.4114184102498</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1755808215.312712</v>
+        <v>1624177772.727521</v>
       </c>
       <c r="F94" t="n">
-        <v>0.111336007254515</v>
+        <v>0.1610672861263392</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03933320173912773</v>
+        <v>0.02820292681464761</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2664448966.982676</v>
+        <v>2692589579.557043</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1251009832847295</v>
+        <v>0.08412600950713051</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05243791633324843</v>
+        <v>0.03443301313677177</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2169724677.390654</v>
+        <v>2297494669.515095</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1181075509439808</v>
+        <v>0.1158599750257844</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04526823349771614</v>
+        <v>0.03312071494455399</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4669010534.320422</v>
+        <v>3401386515.769546</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1209326054076985</v>
+        <v>0.1414085485194157</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02217820610897326</v>
+        <v>0.02537955337690454</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>40</v>
+      </c>
+      <c r="J97" t="n">
+        <v>83</v>
+      </c>
+      <c r="K97" t="n">
+        <v>140.4782510701736</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3899,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3388554216.756267</v>
+        <v>3586518439.552058</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1003755738819943</v>
+        <v>0.09922649161585095</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03163473550400703</v>
+        <v>0.02363267688203608</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>18</v>
+      </c>
+      <c r="J98" t="n">
+        <v>83</v>
+      </c>
+      <c r="K98" t="n">
+        <v>141.427161498536</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2941947968.572776</v>
+        <v>3267438567.561951</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1242717834060261</v>
+        <v>0.1034086565527556</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02901545382664311</v>
+        <v>0.02146897637695849</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3462530756.813466</v>
+        <v>3053140579.618037</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1330419000276274</v>
+        <v>0.1280067669961382</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01864198456343503</v>
+        <v>0.020266136420993</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>34</v>
+      </c>
+      <c r="J100" t="n">
+        <v>82</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2658175372.561413</v>
+        <v>2325047688.25638</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1654015892742467</v>
+        <v>0.1547058149689798</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05859223644228232</v>
+        <v>0.05673286827621069</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>67</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
